--- a/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-2years-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-2years-2023-11-28.xlsx
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>29</v>
       </c>
       <c r="D12">
-        <v>61.7</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="F12">
-        <v>74.2</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="13">
@@ -942,639 +942,639 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oslo University Hospital</t>
+          <t>Örebro University</t>
         </is>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>35.3</v>
       </c>
       <c r="E27">
-        <v>39.5</v>
+        <v>17.3</v>
       </c>
       <c r="F27">
-        <v>58.59999999999999</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oulu University Hospital</t>
+          <t>Örebro University Hospital</t>
         </is>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>23.7</v>
+        <v>5.1</v>
       </c>
       <c r="F28">
-        <v>76.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sahlgrenska University Hospital</t>
+          <t>Oslo University Hospital</t>
         </is>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>26.3</v>
+        <v>39.5</v>
       </c>
       <c r="F29">
-        <v>55.40000000000001</v>
+        <v>58.59999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Skane University Hospital</t>
+          <t>Oulu University Hospital</t>
         </is>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>60.9</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>40.8</v>
+        <v>23.7</v>
       </c>
       <c r="F30">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>St. Olav’s University Hospital</t>
+          <t>Sahlgrenska University Hospital</t>
         </is>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>26.3</v>
       </c>
       <c r="F31">
-        <v>53.3</v>
+        <v>55.40000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Steno Diabetes Center Copenhagen</t>
+          <t>Skane University Hospital</t>
         </is>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>69.2</v>
+        <v>60.9</v>
       </c>
       <c r="E32">
-        <v>42.4</v>
+        <v>40.8</v>
       </c>
       <c r="F32">
-        <v>87.3</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stockholm South General Hospital</t>
+          <t>St. Olav’s University Hospital</t>
         </is>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="E33">
-        <v>11.8</v>
+        <v>18</v>
       </c>
       <c r="F33">
-        <v>98.3</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tampere University Hospital</t>
+          <t>Steno Diabetes Center Copenhagen</t>
         </is>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>68.2</v>
+        <v>69.2</v>
       </c>
       <c r="E34">
-        <v>47.3</v>
+        <v>42.4</v>
       </c>
       <c r="F34">
-        <v>83.59999999999999</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The National University Hospital of Iceland</t>
+          <t>Stockholm South General Hospital</t>
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>66.7</v>
       </c>
       <c r="E35">
-        <v>7.1</v>
+        <v>11.8</v>
       </c>
       <c r="F35">
-        <v>76.90000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Turku University Hospital</t>
+          <t>Tampere University Hospital</t>
         </is>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>37.5</v>
+        <v>68.2</v>
       </c>
       <c r="E36">
-        <v>25.2</v>
+        <v>47.3</v>
       </c>
       <c r="F36">
-        <v>51.6</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UiT The Arctic University of Norway</t>
+          <t>The National University Hospital of Iceland</t>
         </is>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>26.8</v>
+        <v>7.1</v>
       </c>
       <c r="F37">
-        <v>73.2</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Umeå University</t>
+          <t>Turku University Hospital</t>
         </is>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>46.3</v>
+        <v>37.5</v>
       </c>
       <c r="E38">
-        <v>32.1</v>
+        <v>25.2</v>
       </c>
       <c r="F38">
-        <v>61.3</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>University Hospital of North Norway</t>
+          <t>UiT The Arctic University of Norway</t>
         </is>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>35.3</v>
+        <v>50</v>
       </c>
       <c r="E39">
-        <v>17.3</v>
+        <v>26.8</v>
       </c>
       <c r="F39">
-        <v>58.7</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>University Hospital of Umeå</t>
+          <t>Umeå University</t>
         </is>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>46.3</v>
       </c>
       <c r="E40">
-        <v>2.6</v>
+        <v>32.1</v>
       </c>
       <c r="F40">
-        <v>97.39999999999999</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>University of Bergen</t>
+          <t>University Hospital of North Norway</t>
         </is>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>51.6</v>
+        <v>35.3</v>
       </c>
       <c r="E41">
-        <v>34.8</v>
+        <v>17.3</v>
       </c>
       <c r="F41">
-        <v>68</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>University of Copenhagen</t>
+          <t>University Hospital of Umeå</t>
         </is>
       </c>
       <c r="B42">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>43.3</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>33.90000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="F42">
-        <v>53.2</v>
+        <v>97.39999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>University of Eastern Finland</t>
+          <t>University of Bergen</t>
         </is>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>16.7</v>
+        <v>51.6</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>34.8</v>
       </c>
       <c r="F43">
-        <v>44.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>University of Helsinki</t>
+          <t>University of Copenhagen</t>
         </is>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>52.4</v>
+        <v>43.3</v>
       </c>
       <c r="E44">
-        <v>32.4</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="F44">
-        <v>71.7</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>University of Iceland</t>
+          <t>University of Eastern Finland</t>
         </is>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>16.7</v>
       </c>
       <c r="E45">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>76.90000000000001</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>University of Oslo</t>
+          <t>University of Helsinki</t>
         </is>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>65.2</v>
+        <v>52.4</v>
       </c>
       <c r="E46">
-        <v>44.9</v>
+        <v>32.4</v>
       </c>
       <c r="F46">
-        <v>81.2</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>University of Oulu</t>
+          <t>University of Iceland</t>
         </is>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47">
-        <v>23.4</v>
+        <v>7.1</v>
       </c>
       <c r="F47">
-        <v>59.3</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>University of Southern Denmark</t>
+          <t>University of Oslo</t>
         </is>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>64.3</v>
+        <v>65.2</v>
       </c>
       <c r="E48">
-        <v>49.2</v>
+        <v>44.9</v>
       </c>
       <c r="F48">
-        <v>77</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>University of Tampere</t>
+          <t>University of Oulu</t>
         </is>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>55.6</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>26.7</v>
+        <v>23.4</v>
       </c>
       <c r="F49">
-        <v>81.10000000000001</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>University of Turku</t>
+          <t>University of Southern Denmark</t>
         </is>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>64.3</v>
       </c>
       <c r="E50">
-        <v>29.9</v>
+        <v>49.2</v>
       </c>
       <c r="F50">
-        <v>70.09999999999999</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Uppsala Academic Hospital</t>
+          <t>University of Tampere</t>
         </is>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>33.3</v>
+        <v>55.6</v>
       </c>
       <c r="E51">
-        <v>12.1</v>
+        <v>26.7</v>
       </c>
       <c r="F51">
-        <v>64.60000000000001</v>
+        <v>81.10000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Uppsala University</t>
+          <t>University of Turku</t>
         </is>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>43.1</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F52">
-        <v>56.7</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zealand University Hospital</t>
+          <t>Uppsala Academic Hospital</t>
         </is>
       </c>
       <c r="B53">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>57.1</v>
+        <v>33.3</v>
       </c>
       <c r="E53">
-        <v>39.1</v>
+        <v>12.1</v>
       </c>
       <c r="F53">
-        <v>73.5</v>
+        <v>64.60000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Örebro University</t>
+          <t>Uppsala University</t>
         </is>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>35.3</v>
+        <v>43.1</v>
       </c>
       <c r="E54">
-        <v>17.3</v>
+        <v>30.5</v>
       </c>
       <c r="F54">
-        <v>58.7</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Örebro University Hospital</t>
+          <t>Zealand University Hospital</t>
         </is>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>57.1</v>
       </c>
       <c r="E55">
-        <v>5.1</v>
+        <v>39.1</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-2years-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-2years-2023-11-28.xlsx
@@ -421,16 +421,16 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>48.6</v>
+        <v>54.3</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>38.2</v>
       </c>
       <c r="F3">
-        <v>64.40000000000001</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="4">
@@ -443,16 +443,16 @@
         <v>186</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4">
-        <v>60.2</v>
+        <v>60.8</v>
       </c>
       <c r="E4">
-        <v>53</v>
+        <v>53.6</v>
       </c>
       <c r="F4">
-        <v>67</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="5">
@@ -1323,16 +1323,16 @@
         <v>97</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>43.3</v>
+        <v>44.3</v>
       </c>
       <c r="E44">
-        <v>33.90000000000001</v>
+        <v>34.8</v>
       </c>
       <c r="F44">
-        <v>53.2</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="45">
@@ -1477,16 +1477,16 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>55.6</v>
+        <v>66.7</v>
       </c>
       <c r="E51">
-        <v>26.7</v>
+        <v>35.4</v>
       </c>
       <c r="F51">
-        <v>81.10000000000001</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="52">
